--- a/sumifunique.xlsx
+++ b/sumifunique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Github\PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417677B1-9DD4-4F8E-861A-6880CAF90F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B12170D-F4ED-4AAA-A391-61BDB54A45A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63A8CFA4-E474-45B8-9152-EDA4C183EB56}"/>
   </bookViews>
@@ -923,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <f>SUMIF($B$2:$B$21,B2,$C$2:$C$21)</f>
+        <f t="shared" ref="F2:F21" si="0">SUMIF($B$2:$B$21,B2,$C$2:$C$21)</f>
         <v>373</v>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <f>SUMIF($B$2:$B$21,B3,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <f>SUMIF($B$2:$B$21,B4,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <f>SUMIF($B$2:$B$21,B5,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <f>SUMIF($B$2:$B$21,B6,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <f>SUMIF($B$2:$B$21,B7,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <f>SUMIF($B$2:$B$21,B8,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <f>SUMIF($B$2:$B$21,B9,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <f>SUMIF($B$2:$B$21,B10,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>SUMIF($B$2:$B$21,B11,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <f>SUMIF($B$2:$B$21,B12,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
         <v>17</v>
       </c>
       <c r="F13">
-        <f>SUMIF($B$2:$B$21,B13,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <f>SUMIF($B$2:$B$21,B14,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <f>SUMIF($B$2:$B$21,B15,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <f>SUMIF($B$2:$B$21,B16,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="F17">
-        <f>SUMIF($B$2:$B$21,B17,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <f>SUMIF($B$2:$B$21,B18,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>23</v>
       </c>
       <c r="F19">
-        <f>SUMIF($B$2:$B$21,B19,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>24</v>
       </c>
       <c r="F20">
-        <f>SUMIF($B$2:$B$21,B20,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="F21">
-        <f>SUMIF($B$2:$B$21,B21,$C$2:$C$21)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
     </row>
